--- a/Contribution Document (2).xlsx
+++ b/Contribution Document (2).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12368\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abula\AndroidStudioProjects\test1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D166960E-4ACE-472B-A68A-8F18FDFF8B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1A0E69-8024-427E-83C6-8598D124651A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6EDEFFC3-B721-47BD-951B-C9BDD1B29C16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{6EDEFFC3-B721-47BD-951B-C9BDD1B29C16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t>Week2</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>6 HRS</t>
+  </si>
+  <si>
+    <t>10 hrs</t>
+  </si>
+  <si>
+    <t>prototype- basic first setup ,documentation</t>
   </si>
 </sst>
 </file>
@@ -292,7 +298,7 @@
     <cellStyle name="Note" xfId="2" builtinId="10"/>
     <cellStyle name="Style 1" xfId="3" xr:uid="{C793375C-BA50-4230-83F3-B3A332E943E1}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -307,13 +313,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -630,18 +629,18 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="5" width="26.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="5" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -655,15 +654,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15">
+        <v>44961</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -671,7 +676,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -686,7 +691,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -694,7 +699,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -702,7 +707,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
@@ -710,7 +715,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
@@ -718,7 +723,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -726,7 +731,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -734,7 +739,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -742,7 +747,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
@@ -750,7 +755,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -758,7 +763,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -766,7 +771,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -774,7 +779,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -782,7 +787,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
@@ -790,7 +795,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>1</v>
       </c>
@@ -798,7 +803,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>2</v>
       </c>
@@ -806,7 +811,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>3</v>
       </c>
@@ -814,7 +819,7 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>7</v>
       </c>
@@ -822,7 +827,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
@@ -830,7 +835,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
@@ -838,7 +843,7 @@
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>3</v>
       </c>
@@ -846,7 +851,7 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>12</v>
       </c>
@@ -854,7 +859,7 @@
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>1</v>
       </c>
@@ -862,7 +867,7 @@
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>2</v>
       </c>
@@ -870,7 +875,7 @@
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>3</v>
       </c>
@@ -878,7 +883,7 @@
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>11</v>
       </c>
@@ -886,7 +891,7 @@
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>1</v>
       </c>
@@ -894,7 +899,7 @@
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>2</v>
       </c>
@@ -902,7 +907,7 @@
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>3</v>
       </c>
@@ -910,7 +915,7 @@
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>10</v>
       </c>
@@ -918,7 +923,7 @@
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>1</v>
       </c>
@@ -926,7 +931,7 @@
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>2</v>
       </c>
@@ -934,7 +939,7 @@
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>3</v>
       </c>
@@ -942,7 +947,7 @@
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>9</v>
       </c>
@@ -950,7 +955,7 @@
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>1</v>
       </c>
@@ -958,7 +963,7 @@
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>2</v>
       </c>
@@ -966,7 +971,7 @@
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>3</v>
       </c>
@@ -974,7 +979,7 @@
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>8</v>
       </c>
@@ -982,7 +987,7 @@
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>1</v>
       </c>
@@ -990,7 +995,7 @@
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>2</v>
       </c>
@@ -998,7 +1003,7 @@
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>3</v>
       </c>

--- a/Contribution Document (2).xlsx
+++ b/Contribution Document (2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abula\AndroidStudioProjects\test1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pamud\AndroidStudioProjects\prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1A0E69-8024-427E-83C6-8598D124651A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E22A11-CCE5-4250-B57F-7A136FA1439C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{6EDEFFC3-B721-47BD-951B-C9BDD1B29C16}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6EDEFFC3-B721-47BD-951B-C9BDD1B29C16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>Week2</t>
   </si>
@@ -99,6 +99,16 @@
   </si>
   <si>
     <t>prototype- basic first setup ,documentation</t>
+  </si>
+  <si>
+    <t>6 hrs</t>
+  </si>
+  <si>
+    <t>Worked on charts, API integration,
+images, fragements and progress indicaters for project proposal</t>
+  </si>
+  <si>
+    <t>Line Chart extention</t>
   </si>
 </sst>
 </file>
@@ -269,7 +279,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -291,6 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -629,18 +640,18 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="5" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="5" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -654,7 +665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -668,15 +679,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="15">
+        <v>44961</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -691,7 +708,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -699,7 +716,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -707,15 +724,21 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="17">
+        <v>44970</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
@@ -723,7 +746,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -731,7 +754,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -739,7 +762,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -747,7 +770,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
@@ -755,7 +778,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -763,7 +786,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -771,7 +794,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -779,7 +802,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -787,7 +810,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
@@ -795,7 +818,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>1</v>
       </c>
@@ -803,7 +826,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>2</v>
       </c>
@@ -811,7 +834,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>3</v>
       </c>
@@ -819,7 +842,7 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>7</v>
       </c>
@@ -827,7 +850,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
@@ -835,7 +858,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
@@ -843,7 +866,7 @@
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>3</v>
       </c>
@@ -851,7 +874,7 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>12</v>
       </c>
@@ -859,7 +882,7 @@
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>1</v>
       </c>
@@ -867,7 +890,7 @@
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>2</v>
       </c>
@@ -875,7 +898,7 @@
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>3</v>
       </c>
@@ -883,7 +906,7 @@
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>11</v>
       </c>
@@ -891,7 +914,7 @@
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>1</v>
       </c>
@@ -899,7 +922,7 @@
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>2</v>
       </c>
@@ -907,7 +930,7 @@
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>3</v>
       </c>
@@ -915,7 +938,7 @@
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>10</v>
       </c>
@@ -923,7 +946,7 @@
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>1</v>
       </c>
@@ -931,7 +954,7 @@
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>2</v>
       </c>
@@ -939,7 +962,7 @@
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>3</v>
       </c>
@@ -947,7 +970,7 @@
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>9</v>
       </c>
@@ -955,7 +978,7 @@
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>1</v>
       </c>
@@ -963,7 +986,7 @@
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>2</v>
       </c>
@@ -971,7 +994,7 @@
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>3</v>
       </c>
@@ -979,7 +1002,7 @@
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>8</v>
       </c>
@@ -987,7 +1010,7 @@
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>1</v>
       </c>
@@ -995,7 +1018,7 @@
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>2</v>
       </c>
@@ -1003,7 +1026,7 @@
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>3</v>
       </c>

--- a/Contribution Document (2).xlsx
+++ b/Contribution Document (2).xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pamud\AndroidStudioProjects\prototype\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4706356770a3a103/Desktop/test/W23_G1_GTPredict/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E22A11-CCE5-4250-B57F-7A136FA1439C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{68E22A11-CCE5-4250-B57F-7A136FA1439C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B4ED9B8-1447-412D-96C4-8D00E2B65953}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6EDEFFC3-B721-47BD-951B-C9BDD1B29C16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{6EDEFFC3-B721-47BD-951B-C9BDD1B29C16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
   <si>
     <t>Week2</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>Line Chart extention</t>
+  </si>
+  <si>
+    <t>2 hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GITHUB issues and update with bug fix on text color </t>
+  </si>
+  <si>
+    <t xml:space="preserve">adding splash activity and logos, icon for app but two icon shows not sure why have to check </t>
   </si>
 </sst>
 </file>
@@ -279,7 +288,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -302,6 +311,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -637,21 +648,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558BB9C9-9A0D-4E25-BAC3-4371389C6F28}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="5" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -665,7 +678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -679,7 +692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -693,7 +706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -708,7 +721,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -716,7 +729,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -724,7 +737,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
@@ -738,7 +751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
@@ -746,7 +759,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -754,15 +767,21 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="18">
+        <v>44990</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -770,7 +789,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
@@ -778,7 +797,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -786,15 +805,21 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="19">
+        <v>44999</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -802,7 +827,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -810,7 +835,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
@@ -818,7 +843,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>1</v>
       </c>
@@ -826,7 +851,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>2</v>
       </c>
@@ -834,7 +859,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>3</v>
       </c>
@@ -842,7 +867,7 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>7</v>
       </c>
@@ -850,7 +875,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
@@ -858,7 +883,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
@@ -866,7 +891,7 @@
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>3</v>
       </c>
@@ -874,7 +899,7 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>12</v>
       </c>
@@ -882,7 +907,7 @@
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>1</v>
       </c>
@@ -890,7 +915,7 @@
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>2</v>
       </c>
@@ -898,7 +923,7 @@
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>3</v>
       </c>
@@ -906,7 +931,7 @@
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>11</v>
       </c>
@@ -914,7 +939,7 @@
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>1</v>
       </c>
@@ -922,7 +947,7 @@
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>2</v>
       </c>
@@ -930,7 +955,7 @@
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>3</v>
       </c>
@@ -938,7 +963,7 @@
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>10</v>
       </c>
@@ -946,7 +971,7 @@
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>1</v>
       </c>
@@ -954,7 +979,7 @@
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>2</v>
       </c>
@@ -962,7 +987,7 @@
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>3</v>
       </c>
@@ -970,7 +995,7 @@
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>9</v>
       </c>
@@ -978,7 +1003,7 @@
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>1</v>
       </c>
@@ -986,7 +1011,7 @@
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>2</v>
       </c>
@@ -994,7 +1019,7 @@
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>3</v>
       </c>
@@ -1002,7 +1027,7 @@
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>8</v>
       </c>
@@ -1010,7 +1035,7 @@
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>1</v>
       </c>
@@ -1018,7 +1043,7 @@
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>2</v>
       </c>
@@ -1026,7 +1051,7 @@
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>3</v>
       </c>

--- a/Contribution Document (2).xlsx
+++ b/Contribution Document (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4706356770a3a103/Desktop/test/W23_G1_GTPredict/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{68E22A11-CCE5-4250-B57F-7A136FA1439C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B4ED9B8-1447-412D-96C4-8D00E2B65953}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{68E22A11-CCE5-4250-B57F-7A136FA1439C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A0A77C8-C92C-4179-BEC7-03F1A416A39A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{6EDEFFC3-B721-47BD-951B-C9BDD1B29C16}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
   <si>
     <t>Week2</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t xml:space="preserve">adding splash activity and logos, icon for app but two icon shows not sure why have to check </t>
+  </si>
+  <si>
+    <t>2 hrs.</t>
   </si>
 </sst>
 </file>
@@ -349,6 +352,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -652,7 +659,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,7 +820,7 @@
         <v>44999</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>26</v>

--- a/Contribution Document (2).xlsx
+++ b/Contribution Document (2).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4706356770a3a103/Desktop/test/W23_G1_GTPredict/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOUGLAS\W23_G1_GTPredict - Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{68E22A11-CCE5-4250-B57F-7A136FA1439C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A0A77C8-C92C-4179-BEC7-03F1A416A39A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C1DC69-BF3E-46ED-A548-E314E6958467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{6EDEFFC3-B721-47BD-951B-C9BDD1B29C16}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Week2</t>
   </si>
@@ -60,15 +60,6 @@
   </si>
   <si>
     <t>Week6</t>
-  </si>
-  <si>
-    <t>Week11</t>
-  </si>
-  <si>
-    <t>Week10</t>
-  </si>
-  <si>
-    <t>Week9</t>
   </si>
   <si>
     <t>Week8</t>
@@ -121,6 +112,69 @@
   </si>
   <si>
     <t>2 hrs.</t>
+  </si>
+  <si>
+    <t>Image slider</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>3hrs</t>
+  </si>
+  <si>
+    <t>2hrs</t>
+  </si>
+  <si>
+    <t>5 hrs</t>
+  </si>
+  <si>
+    <t>Send SMS , Email</t>
+  </si>
+  <si>
+    <t>6hrs</t>
+  </si>
+  <si>
+    <t>4 hrs</t>
+  </si>
+  <si>
+    <t>Splash animation</t>
+  </si>
+  <si>
+    <t>blink and size modification ,Lotties animation for spinner changes, color of buttons, Change isn red color ( removed later)</t>
+  </si>
+  <si>
+    <t>Webscarpping</t>
+  </si>
+  <si>
+    <t>Adding Database, inserting data from activity input</t>
+  </si>
+  <si>
+    <t>7,8 - April</t>
+  </si>
+  <si>
+    <t>3 hrs</t>
+  </si>
+  <si>
+    <t>Adding domain calc.</t>
+  </si>
+  <si>
+    <t>final tuning for all calculation and activities simualtion , from database fetching , passing date to activity output, fetching and pssing data to Graph.</t>
+  </si>
+  <si>
+    <t>8,4/4/2023</t>
+  </si>
+  <si>
+    <t>CSV upload &amp; download, support of final testing</t>
+  </si>
+  <si>
+    <t>support on final run testing</t>
+  </si>
+  <si>
+    <t>1  hrs</t>
+  </si>
+  <si>
+    <t>8,april</t>
   </si>
 </sst>
 </file>
@@ -150,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,24 +254,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,7 +327,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -306,9 +342,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -316,6 +349,21 @@
     <xf numFmtId="15" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -352,10 +400,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -656,10 +700,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558BB9C9-9A0D-4E25-BAC3-4371389C6F28}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,64 +711,64 @@
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="133.7109375" style="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="12">
         <v>44961</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="12">
         <v>44961</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="12">
         <v>44961</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -742,29 +786,35 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="14">
         <v>44970</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="21">
+        <v>44975</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -772,20 +822,20 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="15">
         <v>44990</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -794,15 +844,21 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="B14" s="15">
+        <v>44984</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -810,20 +866,20 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="26"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="16">
         <v>44999</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -832,7 +888,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -840,7 +896,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -848,7 +904,7 @@
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
@@ -856,23 +912,35 @@
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="D22" s="27"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="B23" s="17">
+        <v>45007</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="B24" s="17">
+        <v>45007</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -880,191 +948,143 @@
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="D26" s="28"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="18">
+        <v>45011</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="18">
+        <v>45013</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="18">
+        <v>45011</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="29"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="B32" s="19">
+        <v>45016</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
+      <c r="B33" s="19">
+        <v>45015</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="10"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="D34" s="29"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="D36" s="30"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="B37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="B38" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
+      <c r="B39" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
